--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/59/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/59/FD_Curve.xlsx
@@ -499,21 +499,21 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.92116</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3921.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>4.10217</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>4102.17</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>4.25512</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>4255.12</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86023</v>
+        <v>4.37708</v>
       </c>
       <c r="C9" t="n">
-        <v>7860.23</v>
+        <v>4377.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247924</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.74743</v>
+        <v>4.48017</v>
       </c>
       <c r="C10" t="n">
-        <v>8747.43</v>
+        <v>4480.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278849</v>
+        <v>0.278892</v>
       </c>
       <c r="B11" t="n">
-        <v>9.401280000000002</v>
+        <v>4.57444</v>
       </c>
       <c r="C11" t="n">
-        <v>9401.280000000001</v>
+        <v>4574.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309774</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>10.0543</v>
+        <v>4.66479</v>
       </c>
       <c r="C12" t="n">
-        <v>10054.3</v>
+        <v>4664.79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340742</v>
       </c>
       <c r="B13" t="n">
-        <v>10.5206</v>
+        <v>4.74678</v>
       </c>
       <c r="C13" t="n">
-        <v>10520.6</v>
+        <v>4746.78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8328</v>
+        <v>4.81804</v>
       </c>
       <c r="C14" t="n">
-        <v>10832.8</v>
+        <v>4818.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>10.9278</v>
+        <v>4.887300000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10927.8</v>
+        <v>4887.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>10.9487</v>
+        <v>4.95154</v>
       </c>
       <c r="C16" t="n">
-        <v>10948.7</v>
+        <v>4951.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>10.9503</v>
+        <v>5.010770000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10950.3</v>
+        <v>5010.77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495363</v>
       </c>
       <c r="B18" t="n">
-        <v>10.9453</v>
+        <v>5.06622</v>
       </c>
       <c r="C18" t="n">
-        <v>10945.3</v>
+        <v>5066.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526288</v>
       </c>
       <c r="B19" t="n">
-        <v>10.9368</v>
+        <v>5.11843</v>
       </c>
       <c r="C19" t="n">
-        <v>10936.8</v>
+        <v>5118.43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557213</v>
       </c>
       <c r="B20" t="n">
-        <v>10.9256</v>
+        <v>5.16591</v>
       </c>
       <c r="C20" t="n">
-        <v>10925.6</v>
+        <v>5165.91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588138</v>
       </c>
       <c r="B21" t="n">
-        <v>10.9124</v>
+        <v>5.20987</v>
       </c>
       <c r="C21" t="n">
-        <v>10912.4</v>
+        <v>5209.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.61918</v>
       </c>
       <c r="B22" t="n">
-        <v>10.8974</v>
+        <v>5.25275</v>
       </c>
       <c r="C22" t="n">
-        <v>10897.4</v>
+        <v>5252.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.6503139999999999</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>10.8805</v>
+        <v>5.292590000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>10880.5</v>
+        <v>5292.59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>10.8613</v>
+        <v>5.32852</v>
       </c>
       <c r="C24" t="n">
-        <v>10861.3</v>
+        <v>5328.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.7127019999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>10.8404</v>
+        <v>5.363720000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>10840.4</v>
+        <v>5363.72</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>10.8176</v>
+        <v>5.39517</v>
       </c>
       <c r="C26" t="n">
-        <v>10817.6</v>
+        <v>5395.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.775052</v>
       </c>
       <c r="B27" t="n">
-        <v>10.7925</v>
+        <v>5.425680000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>10792.5</v>
+        <v>5425.68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806225</v>
       </c>
       <c r="B28" t="n">
-        <v>10.7655</v>
+        <v>5.453180000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>10765.5</v>
+        <v>5453.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>10.7368</v>
+        <v>5.47973</v>
       </c>
       <c r="C29" t="n">
-        <v>10736.8</v>
+        <v>5479.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868574</v>
       </c>
       <c r="B30" t="n">
-        <v>10.7066</v>
+        <v>5.50369</v>
       </c>
       <c r="C30" t="n">
-        <v>10706.6</v>
+        <v>5503.69</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>10.6746</v>
+        <v>5.52685</v>
       </c>
       <c r="C31" t="n">
-        <v>10674.6</v>
+        <v>5526.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>10.6409</v>
+        <v>5.54774</v>
       </c>
       <c r="C32" t="n">
-        <v>10640.9</v>
+        <v>5547.74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962096</v>
       </c>
       <c r="B33" t="n">
-        <v>10.6054</v>
+        <v>5.56733</v>
       </c>
       <c r="C33" t="n">
-        <v>10605.4</v>
+        <v>5567.33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9932299999999999</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>10.5675</v>
+        <v>5.58601</v>
       </c>
       <c r="C34" t="n">
-        <v>10567.5</v>
+        <v>5586.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02431</v>
       </c>
       <c r="B35" t="n">
-        <v>10.5274</v>
+        <v>5.603</v>
       </c>
       <c r="C35" t="n">
-        <v>10527.4</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05593</v>
+        <v>1.05527</v>
       </c>
       <c r="B36" t="n">
-        <v>10.4856</v>
+        <v>5.618819999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>10485.6</v>
+        <v>5618.82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08624</v>
       </c>
       <c r="B37" t="n">
-        <v>10.4412</v>
+        <v>5.63392</v>
       </c>
       <c r="C37" t="n">
-        <v>10441.2</v>
+        <v>5633.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11869</v>
+        <v>1.11721</v>
       </c>
       <c r="B38" t="n">
-        <v>10.3944</v>
+        <v>5.64797</v>
       </c>
       <c r="C38" t="n">
-        <v>10394.4</v>
+        <v>5647.97</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15007</v>
+        <v>1.14818</v>
       </c>
       <c r="B39" t="n">
-        <v>10.3461</v>
+        <v>5.66089</v>
       </c>
       <c r="C39" t="n">
-        <v>10346.1</v>
+        <v>5660.89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18145</v>
+        <v>1.17915</v>
       </c>
       <c r="B40" t="n">
-        <v>10.2953</v>
+        <v>5.67294</v>
       </c>
       <c r="C40" t="n">
-        <v>10295.3</v>
+        <v>5672.94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21283</v>
+        <v>1.21011</v>
       </c>
       <c r="B41" t="n">
-        <v>10.2415</v>
+        <v>5.68433</v>
       </c>
       <c r="C41" t="n">
-        <v>10241.5</v>
+        <v>5684.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24421</v>
+        <v>1.24108</v>
       </c>
       <c r="B42" t="n">
-        <v>10.1855</v>
+        <v>5.69508</v>
       </c>
       <c r="C42" t="n">
-        <v>10185.5</v>
+        <v>5695.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27559</v>
+        <v>1.27205</v>
       </c>
       <c r="B43" t="n">
-        <v>10.1272</v>
+        <v>5.70517</v>
       </c>
       <c r="C43" t="n">
-        <v>10127.2</v>
+        <v>5705.17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30667</v>
+        <v>1.30302</v>
       </c>
       <c r="B44" t="n">
-        <v>10.0665</v>
+        <v>5.714630000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>10066.5</v>
+        <v>5714.63</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33774</v>
+        <v>1.33399</v>
       </c>
       <c r="B45" t="n">
-        <v>10.003</v>
+        <v>5.7235</v>
       </c>
       <c r="C45" t="n">
-        <v>10003</v>
+        <v>5723.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36859</v>
+        <v>1.36495</v>
       </c>
       <c r="B46" t="n">
-        <v>9.937239999999999</v>
+        <v>5.73183</v>
       </c>
       <c r="C46" t="n">
-        <v>9937.24</v>
+        <v>5731.83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39975</v>
+        <v>1.39592</v>
       </c>
       <c r="B47" t="n">
-        <v>9.86801</v>
+        <v>5.739710000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>9868.01</v>
+        <v>5739.71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43067</v>
+        <v>1.42689</v>
       </c>
       <c r="B48" t="n">
-        <v>9.795879999999999</v>
+        <v>5.74716</v>
       </c>
       <c r="C48" t="n">
-        <v>9795.879999999999</v>
+        <v>5747.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46168</v>
+        <v>1.45785</v>
       </c>
       <c r="B49" t="n">
-        <v>9.720330000000001</v>
+        <v>5.75422</v>
       </c>
       <c r="C49" t="n">
-        <v>9720.33</v>
+        <v>5754.22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49276</v>
+        <v>1.48882</v>
       </c>
       <c r="B50" t="n">
-        <v>9.641129999999999</v>
+        <v>5.76088</v>
       </c>
       <c r="C50" t="n">
-        <v>9641.129999999999</v>
+        <v>5760.88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52354</v>
+        <v>1.51979</v>
       </c>
       <c r="B51" t="n">
-        <v>9.55838</v>
+        <v>5.767189999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>9558.379999999999</v>
+        <v>5767.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55476</v>
+        <v>1.55076</v>
       </c>
       <c r="B52" t="n">
-        <v>9.470600000000001</v>
+        <v>5.77317</v>
       </c>
       <c r="C52" t="n">
-        <v>9470.6</v>
+        <v>5773.17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58571</v>
+        <v>1.58173</v>
       </c>
       <c r="B53" t="n">
-        <v>9.378920000000001</v>
+        <v>5.778840000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9378.92</v>
+        <v>5778.84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61666</v>
+        <v>1.61232</v>
       </c>
       <c r="B54" t="n">
-        <v>9.282969999999999</v>
+        <v>5.78422</v>
       </c>
       <c r="C54" t="n">
-        <v>9282.969999999999</v>
+        <v>5784.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64779</v>
+        <v>1.64287</v>
       </c>
       <c r="B55" t="n">
-        <v>9.182080000000001</v>
+        <v>5.78933</v>
       </c>
       <c r="C55" t="n">
-        <v>9182.08</v>
+        <v>5789.33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67849</v>
+        <v>1.67343</v>
       </c>
       <c r="B56" t="n">
-        <v>9.077549999999999</v>
+        <v>5.794180000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>9077.549999999999</v>
+        <v>5794.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70982</v>
+        <v>1.70398</v>
       </c>
       <c r="B57" t="n">
-        <v>8.96651</v>
+        <v>5.79879</v>
       </c>
       <c r="C57" t="n">
-        <v>8966.51</v>
+        <v>5798.79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74059</v>
+        <v>1.73499</v>
       </c>
       <c r="B58" t="n">
-        <v>8.852729999999999</v>
+        <v>5.80323</v>
       </c>
       <c r="C58" t="n">
-        <v>8852.73</v>
+        <v>5803.23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77175</v>
+        <v>1.76656</v>
       </c>
       <c r="B59" t="n">
-        <v>8.733000000000001</v>
+        <v>5.80753</v>
       </c>
       <c r="C59" t="n">
-        <v>8733</v>
+        <v>5807.53</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80264</v>
+        <v>1.79814</v>
       </c>
       <c r="B60" t="n">
-        <v>8.60994</v>
+        <v>5.8116</v>
       </c>
       <c r="C60" t="n">
-        <v>8609.940000000001</v>
+        <v>5811.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83379</v>
+        <v>1.82931</v>
       </c>
       <c r="B61" t="n">
-        <v>8.48179</v>
+        <v>5.81546</v>
       </c>
       <c r="C61" t="n">
-        <v>8481.790000000001</v>
+        <v>5815.46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86462</v>
+        <v>1.86046</v>
       </c>
       <c r="B62" t="n">
-        <v>8.35074</v>
+        <v>5.819140000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>8350.74</v>
+        <v>5819.14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89576</v>
+        <v>1.89161</v>
       </c>
       <c r="B63" t="n">
-        <v>8.21514</v>
+        <v>5.82261</v>
       </c>
       <c r="C63" t="n">
-        <v>8215.139999999999</v>
+        <v>5822.61</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9265</v>
+        <v>1.92276</v>
       </c>
       <c r="B64" t="n">
-        <v>8.07813</v>
+        <v>5.825880000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>8078.13</v>
+        <v>5825.88</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9578</v>
+        <v>1.9539</v>
       </c>
       <c r="B65" t="n">
-        <v>7.93592</v>
+        <v>5.82899</v>
       </c>
       <c r="C65" t="n">
-        <v>7935.92</v>
+        <v>5828.99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98838</v>
+        <v>1.98505</v>
       </c>
       <c r="B66" t="n">
-        <v>7.79557</v>
+        <v>5.831930000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>7795.57</v>
+        <v>5831.93</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01985</v>
+        <v>2.01612</v>
       </c>
       <c r="B67" t="n">
-        <v>7.65014</v>
+        <v>5.83471</v>
       </c>
       <c r="C67" t="n">
-        <v>7650.14</v>
+        <v>5834.71</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05093</v>
+        <v>2.04684</v>
       </c>
       <c r="B68" t="n">
-        <v>7.506180000000001</v>
+        <v>5.83732</v>
       </c>
       <c r="C68" t="n">
-        <v>7506.18</v>
+        <v>5837.32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08164</v>
+        <v>2.07756</v>
       </c>
       <c r="B69" t="n">
-        <v>7.360399999999999</v>
+        <v>5.8398</v>
       </c>
       <c r="C69" t="n">
-        <v>7360.4</v>
+        <v>5839.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11326</v>
+        <v>2.10828</v>
       </c>
       <c r="B70" t="n">
-        <v>7.21356</v>
+        <v>5.84211</v>
       </c>
       <c r="C70" t="n">
-        <v>7213.56</v>
+        <v>5842.11</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14338</v>
+        <v>2.139</v>
       </c>
       <c r="B71" t="n">
-        <v>7.07041</v>
+        <v>5.84429</v>
       </c>
       <c r="C71" t="n">
-        <v>7070.41</v>
+        <v>5844.29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17504</v>
+        <v>2.16972</v>
       </c>
       <c r="B72" t="n">
-        <v>6.924609999999999</v>
+        <v>5.84633</v>
       </c>
       <c r="C72" t="n">
-        <v>6924.61</v>
+        <v>5846.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20589</v>
+        <v>2.20044</v>
       </c>
       <c r="B73" t="n">
-        <v>6.78254</v>
+        <v>5.84821</v>
       </c>
       <c r="C73" t="n">
-        <v>6782.54</v>
+        <v>5848.21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23629</v>
+        <v>2.23116</v>
       </c>
       <c r="B74" t="n">
-        <v>6.645720000000001</v>
+        <v>5.84995</v>
       </c>
       <c r="C74" t="n">
-        <v>6645.72</v>
+        <v>5849.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26814</v>
+        <v>2.26279</v>
       </c>
       <c r="B75" t="n">
-        <v>6.506390000000001</v>
+        <v>5.85163</v>
       </c>
       <c r="C75" t="n">
-        <v>6506.39</v>
+        <v>5851.63</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29886</v>
+        <v>2.29457</v>
       </c>
       <c r="B76" t="n">
-        <v>6.37169</v>
+        <v>5.85317</v>
       </c>
       <c r="C76" t="n">
-        <v>6371.69</v>
+        <v>5853.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32958</v>
+        <v>2.32635</v>
       </c>
       <c r="B77" t="n">
-        <v>6.2431</v>
+        <v>5.85458</v>
       </c>
       <c r="C77" t="n">
-        <v>6243.1</v>
+        <v>5854.58</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3608</v>
+        <v>2.35728</v>
       </c>
       <c r="B78" t="n">
-        <v>6.11561</v>
+        <v>5.85585</v>
       </c>
       <c r="C78" t="n">
-        <v>6115.61</v>
+        <v>5855.85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39188</v>
+        <v>2.38818</v>
       </c>
       <c r="B79" t="n">
-        <v>5.99026</v>
+        <v>5.857010000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>5990.26</v>
+        <v>5857.01</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42315</v>
+        <v>2.41908</v>
       </c>
       <c r="B80" t="n">
-        <v>5.86879</v>
+        <v>5.85805</v>
       </c>
       <c r="C80" t="n">
-        <v>5868.79</v>
+        <v>5858.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45269</v>
+        <v>2.44908</v>
       </c>
       <c r="B81" t="n">
-        <v>5.7572</v>
+        <v>5.85893</v>
       </c>
       <c r="C81" t="n">
-        <v>5757.2</v>
+        <v>5858.93</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48234</v>
+        <v>2.47894</v>
       </c>
       <c r="B82" t="n">
-        <v>5.64967</v>
+        <v>5.85969</v>
       </c>
       <c r="C82" t="n">
-        <v>5649.67</v>
+        <v>5859.69</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51221</v>
+        <v>2.51088</v>
       </c>
       <c r="B83" t="n">
-        <v>5.54793</v>
+        <v>5.860390000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>5547.93</v>
+        <v>5860.39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54207</v>
+        <v>2.54288</v>
       </c>
       <c r="B84" t="n">
-        <v>5.45051</v>
+        <v>5.86095</v>
       </c>
       <c r="C84" t="n">
-        <v>5450.51</v>
+        <v>5860.95</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57194</v>
+        <v>2.57488</v>
       </c>
       <c r="B85" t="n">
-        <v>5.357550000000001</v>
+        <v>5.8614</v>
       </c>
       <c r="C85" t="n">
-        <v>5357.55</v>
+        <v>5861.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60181</v>
+        <v>2.60688</v>
       </c>
       <c r="B86" t="n">
-        <v>5.26812</v>
+        <v>5.86172</v>
       </c>
       <c r="C86" t="n">
-        <v>5268.12</v>
+        <v>5861.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63167</v>
+        <v>2.63888</v>
       </c>
       <c r="B87" t="n">
-        <v>5.18375</v>
+        <v>5.86192</v>
       </c>
       <c r="C87" t="n">
-        <v>5183.75</v>
+        <v>5861.92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66154</v>
+        <v>2.67088</v>
       </c>
       <c r="B88" t="n">
-        <v>5.10529</v>
+        <v>5.86198</v>
       </c>
       <c r="C88" t="n">
-        <v>5105.29</v>
+        <v>5861.98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69141</v>
+        <v>2.70288</v>
       </c>
       <c r="B89" t="n">
-        <v>5.029710000000001</v>
+        <v>5.86187</v>
       </c>
       <c r="C89" t="n">
-        <v>5029.71</v>
+        <v>5861.87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72127</v>
+        <v>2.73436</v>
       </c>
       <c r="B90" t="n">
-        <v>4.9584</v>
+        <v>5.86165</v>
       </c>
       <c r="C90" t="n">
-        <v>4958.4</v>
+        <v>5861.65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75114</v>
+        <v>2.76545</v>
       </c>
       <c r="B91" t="n">
-        <v>4.88955</v>
+        <v>5.8613</v>
       </c>
       <c r="C91" t="n">
-        <v>4889.55</v>
+        <v>5861.3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78013</v>
+        <v>2.79654</v>
       </c>
       <c r="B92" t="n">
-        <v>4.82432</v>
+        <v>5.86083</v>
       </c>
       <c r="C92" t="n">
-        <v>4824.32</v>
+        <v>5860.83</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81229</v>
+        <v>2.82762</v>
       </c>
       <c r="B93" t="n">
-        <v>4.7563</v>
+        <v>5.86026</v>
       </c>
       <c r="C93" t="n">
-        <v>4756.3</v>
+        <v>5860.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84434</v>
+        <v>2.85871</v>
       </c>
       <c r="B94" t="n">
-        <v>4.694310000000001</v>
+        <v>5.85954</v>
       </c>
       <c r="C94" t="n">
-        <v>4694.31</v>
+        <v>5859.54</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87848</v>
+        <v>2.88979</v>
       </c>
       <c r="B95" t="n">
-        <v>4.66186</v>
+        <v>5.85871</v>
       </c>
       <c r="C95" t="n">
-        <v>4661.86</v>
+        <v>5858.71</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91048</v>
+        <v>2.92088</v>
       </c>
       <c r="B96" t="n">
-        <v>4.64665</v>
+        <v>5.85778</v>
       </c>
       <c r="C96" t="n">
-        <v>4646.65</v>
+        <v>5857.78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94248</v>
+        <v>2.95197</v>
       </c>
       <c r="B97" t="n">
-        <v>4.633520000000001</v>
+        <v>5.85672</v>
       </c>
       <c r="C97" t="n">
-        <v>4633.52</v>
+        <v>5856.72</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97448</v>
+        <v>2.98305</v>
       </c>
       <c r="B98" t="n">
-        <v>4.61934</v>
+        <v>5.8555</v>
       </c>
       <c r="C98" t="n">
-        <v>4619.34</v>
+        <v>5855.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00647</v>
+        <v>3.01414</v>
       </c>
       <c r="B99" t="n">
-        <v>4.59905</v>
+        <v>5.85417</v>
       </c>
       <c r="C99" t="n">
-        <v>4599.05</v>
+        <v>5854.17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03848</v>
+        <v>3.04522</v>
       </c>
       <c r="B100" t="n">
-        <v>4.58125</v>
+        <v>5.85271</v>
       </c>
       <c r="C100" t="n">
-        <v>4581.25</v>
+        <v>5852.71</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07048</v>
+        <v>3.07599</v>
       </c>
       <c r="B101" t="n">
-        <v>4.550850000000001</v>
+        <v>5.85108</v>
       </c>
       <c r="C101" t="n">
-        <v>4550.85</v>
+        <v>5851.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10194</v>
+        <v>3.10616</v>
       </c>
       <c r="B102" t="n">
-        <v>4.52864</v>
+        <v>5.84932</v>
       </c>
       <c r="C102" t="n">
-        <v>4528.64</v>
+        <v>5849.32</v>
       </c>
     </row>
   </sheetData>
